--- a/Propuesta/CasosUsos/Caso de Uso 12 Configuraciones.xlsx
+++ b/Propuesta/CasosUsos/Caso de Uso 12 Configuraciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus VivoBook\Downloads\Computación Móvil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imroo\Desktop\SIS\CompuMovil\Proyecto\computacion_movil\Propuesta\CasosUsos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E8B130-5CCE-407E-A46C-744547E4C779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC6AA3-8ED9-455A-ACE6-FCE4BC1E8C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -699,17 +699,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -720,107 +819,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,166 +1211,166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="98" workbookViewId="0">
-      <selection activeCell="D34" sqref="A6:F60"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" style="3" customWidth="1"/>
-    <col min="2" max="6" width="20.7265625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
+    <col min="2" max="6" width="20.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-    </row>
-    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.25">
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-    </row>
-    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.25">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
+    </row>
+    <row r="8" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="44" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="75"/>
+      <c r="B13" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-    </row>
-    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="76"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="71"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-    </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
-    </row>
-    <row r="18" spans="1:8" ht="14" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="75"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="68"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="76"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-    </row>
-    <row r="19" spans="1:8" ht="26" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+    </row>
+    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="38"/>
       <c r="B19" s="16" t="s">
         <v>2</v>
       </c>
@@ -1387,8 +1387,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="38"/>
       <c r="B20" s="18" t="s">
         <v>51</v>
       </c>
@@ -1405,8 +1405,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
       <c r="B21" s="18" t="s">
         <v>52</v>
       </c>
@@ -1423,8 +1423,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
       <c r="B22" s="18" t="s">
         <v>53</v>
       </c>
@@ -1441,8 +1441,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
       <c r="B23" s="18" t="s">
         <v>54</v>
       </c>
@@ -1459,159 +1459,153 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
       <c r="B24" s="18"/>
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
       <c r="E24" s="22"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="158" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
+    <row r="25" spans="1:8" ht="158.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="38"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:8" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-    </row>
-    <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="56" t="s">
+    <row r="26" spans="1:8" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="38"/>
+      <c r="B27" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-    </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="59" t="s">
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="65"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="38"/>
+      <c r="B28" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-    </row>
-    <row r="30" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-    </row>
-    <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="56" t="s">
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="38"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="71"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="38"/>
+      <c r="B31" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
       <c r="B32" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="62"/>
-    </row>
-    <row r="33" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="73"/>
+    </row>
+    <row r="33" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="38"/>
       <c r="B33" s="34">
         <v>1</v>
       </c>
       <c r="C33" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="64"/>
-    </row>
-    <row r="34" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="53"/>
+    </row>
+    <row r="34" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="38"/>
       <c r="B34" s="34">
         <v>2</v>
       </c>
       <c r="C34" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="64"/>
-    </row>
-    <row r="35" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="33">
-        <v>3</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="63"/>
-      <c r="F35" s="64"/>
-    </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="53"/>
+    </row>
+    <row r="35" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="38"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="53"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="38"/>
       <c r="B36" s="19"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="38"/>
       <c r="B37" s="17"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="55"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="53"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="21" t="s">
@@ -1620,82 +1614,88 @@
       <c r="C39" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="66"/>
-    </row>
-    <row r="40" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="50"/>
-    </row>
-    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+    </row>
+    <row r="40" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="38"/>
+      <c r="B40" s="17">
+        <v>1</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="52"/>
+      <c r="F40" s="53"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="38"/>
       <c r="B41" s="19"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="50"/>
-    </row>
-    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="38"/>
       <c r="B42" s="19"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="50"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="55"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="45"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
       <c r="B43" s="20"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="53"/>
-    </row>
-    <row r="44" spans="1:6" ht="14" x14ac:dyDescent="0.25">
-      <c r="A44" s="54" t="s">
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="55"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="40"/>
-    </row>
-    <row r="45" spans="1:6" ht="14" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="45"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="38"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="48" t="s">
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="38"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="68"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="71"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="54" t="s">
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="37" t="s">
         <v>31</v>
       </c>
       <c r="B48" s="29" t="s">
@@ -1714,8 +1714,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="38"/>
       <c r="B49" s="30"/>
       <c r="C49" s="32" t="s">
         <v>38</v>
@@ -1728,48 +1728,48 @@
       </c>
       <c r="F49" s="26"/>
     </row>
-    <row r="50" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="38"/>
       <c r="B50" s="31"/>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
       <c r="E50" s="22"/>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="38"/>
       <c r="B51" s="31"/>
       <c r="C51" s="22"/>
       <c r="D51" s="23"/>
       <c r="E51" s="22"/>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="38"/>
       <c r="B52" s="17"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="11"/>
     </row>
-    <row r="53" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="38"/>
       <c r="B53" s="17"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="11"/>
     </row>
-    <row r="54" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="55"/>
+    <row r="54" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="39"/>
       <c r="B54" s="20"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="54" t="s">
+    <row r="55" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B55" s="29" t="s">
@@ -1781,59 +1781,78 @@
       <c r="D55" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="74" t="s">
+      <c r="E55" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F55" s="75"/>
-    </row>
-    <row r="56" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
+      <c r="F55" s="41"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="38"/>
       <c r="B56" s="30"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="77"/>
-    </row>
-    <row r="57" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="43"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="38"/>
       <c r="B57" s="31"/>
       <c r="C57" s="24"/>
       <c r="D57" s="22"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="50"/>
-    </row>
-    <row r="58" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="45"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="38"/>
       <c r="B58" s="31"/>
       <c r="C58" s="24"/>
       <c r="D58" s="22"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="50"/>
-    </row>
-    <row r="59" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="45"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="38"/>
       <c r="B59" s="17"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="50"/>
-    </row>
-    <row r="60" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="55"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="45"/>
+    </row>
+    <row r="60" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
       <c r="B60" s="20"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="53"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B9:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A18:A38"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F30"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="B25:F26"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="D35:F35"/>
@@ -1850,31 +1869,12 @@
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D41:F41"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A18:A38"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F30"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E59:F59"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1895,16 +1895,16 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1922,7 +1922,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/Propuesta/CasosUsos/Caso de Uso 12 Configuraciones.xlsx
+++ b/Propuesta/CasosUsos/Caso de Uso 12 Configuraciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imroo\Desktop\SIS\CompuMovil\Proyecto\computacion_movil\Propuesta\CasosUsos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Javeriana\Semestre 1\ComputacionMovil\Proyecto\computacion_movil\Propuesta\CasosUsos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC6AA3-8ED9-455A-ACE6-FCE4BC1E8C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02BEAB9-02AF-4197-8794-793F01F38CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$F$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$F$63</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Hoja1!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
-  <si>
-    <t>Módulo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t>Datos de Entrada</t>
   </si>
@@ -174,9 +169,6 @@
     <t>Sistema</t>
   </si>
   <si>
-    <t xml:space="preserve">El sistema Valida los datos ingresados en los campos e ingresa al aplicativo </t>
-  </si>
-  <si>
     <t>Si la información ingresada en los campos no es válida, se resaltan y el usuario debe ingresar nuevamente la información</t>
   </si>
   <si>
@@ -186,9 +178,6 @@
     <t>Configuraciones</t>
   </si>
   <si>
-    <t>Configuración del Usuario creado y cambio de la clave para ingresar al aplicativo</t>
-  </si>
-  <si>
     <t xml:space="preserve">El usuario puede administrar el nombre y clave del perfil creado en el aplicativo </t>
   </si>
   <si>
@@ -207,10 +196,46 @@
     <t>Alfanumerico y Un Caracter Especial</t>
   </si>
   <si>
-    <t>Administración del usuario y modificación de la Clave del Usuario</t>
-  </si>
-  <si>
     <t>El Usuario ingresa los datos en los campos y selecciona la opción Confirmar</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Event Plus</t>
+  </si>
+  <si>
+    <t>Icono</t>
+  </si>
+  <si>
+    <t>Plus E</t>
+  </si>
+  <si>
+    <t>Nombre Materia</t>
+  </si>
+  <si>
+    <t>Nombre Equipo</t>
+  </si>
+  <si>
+    <t>Los que sobran</t>
+  </si>
+  <si>
+    <t>Carlos Parra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema valida los datos ingresados en los campos e ingresa al aplicativo </t>
+  </si>
+  <si>
+    <t>Para realizar el cambio de la clave de la aplicación</t>
+  </si>
+  <si>
+    <t>Cambio exitoso de la clae y se sale de la aplicación</t>
+  </si>
+  <si>
+    <t>El sistema valida el clave actual</t>
+  </si>
+  <si>
+    <t>La contraseña nueva con la validacion de la nueva deben ser iguales</t>
   </si>
 </sst>
 </file>
@@ -235,10 +260,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -589,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -600,9 +627,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -705,7 +729,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -720,107 +849,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,23 +873,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>907144</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>90713</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>719235</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>58317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>390697</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1682039</xdr:rowOff>
+      <xdr:colOff>1306676</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1788998</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0F5A55-F225-470F-A9DB-B949AC43D653}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFE520A-9BC4-4C90-B935-CC017BEB2933}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,8 +905,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3797042" y="5358621"/>
-          <a:ext cx="2373451" cy="3600000"/>
+          <a:off x="4859694" y="6123215"/>
+          <a:ext cx="1967594" cy="3732875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1195487</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>97194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>343301</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1740596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACDF7648-E4D9-45C9-8E57-C9E16F586593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2575640" y="6162092"/>
+          <a:ext cx="1908120" cy="3645596"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1209,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:H60"/>
+  <dimension ref="A4:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1223,658 +1297,711 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
+      <c r="A4" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+    </row>
+    <row r="11" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="48"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="43"/>
+      <c r="B16" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
-    </row>
-    <row r="8" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="67" t="s">
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+    </row>
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="48"/>
+      <c r="B22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="48"/>
+      <c r="B23" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="67" t="s">
+      <c r="C23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="7">
+        <v>20</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="48"/>
+      <c r="B24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="C24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="48"/>
+      <c r="B25" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="7">
+        <v>8</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="48"/>
+      <c r="B26" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="7">
+        <v>8</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="158.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="48"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:8" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="48"/>
+      <c r="B30" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="48"/>
+      <c r="B31" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="48"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="48"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="48"/>
+      <c r="B34" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="54"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="48"/>
+      <c r="B35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+    </row>
+    <row r="36" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="48"/>
+      <c r="B36" s="33">
+        <v>1</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="67"/>
+      <c r="F36" s="68"/>
+    </row>
+    <row r="37" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="48"/>
+      <c r="B37" s="33">
+        <v>2</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="67"/>
+      <c r="F37" s="68"/>
+    </row>
+    <row r="38" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="48"/>
+      <c r="B38" s="32">
+        <v>3</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="67"/>
+      <c r="F38" s="68"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="48"/>
+      <c r="B39" s="32">
+        <v>4</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="67"/>
+      <c r="F39" s="68"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="48"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="70"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="71"/>
+      <c r="F42" s="72"/>
+    </row>
+    <row r="43" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="48"/>
+      <c r="B43" s="16">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="67"/>
+      <c r="F43" s="68"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="48"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="66"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="48"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="66"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="70"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="73"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="41"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="48"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="46"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="39"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
-      <c r="B13" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="71"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="75"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
-    </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
-    </row>
-    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="8">
-        <v>20</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="8">
-        <v>8</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="8">
-        <v>8</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="8">
-        <v>8</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" ht="158.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="65"/>
-    </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="68"/>
-    </row>
-    <row r="30" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="71"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="65"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="72"/>
-      <c r="F32" s="73"/>
-    </row>
-    <row r="33" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="34">
-        <v>1</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-    </row>
-    <row r="34" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="34">
-        <v>2</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-    </row>
-    <row r="35" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="37" t="s">
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="57"/>
-    </row>
-    <row r="40" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
-      <c r="B40" s="17">
-        <v>1</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="53"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="38"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="45"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="38"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="45"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="55"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="62"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="38"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="68"/>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="71"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="37" t="s">
+      <c r="C51" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="48"/>
+      <c r="B52" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="25"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="48"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="48"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="48"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="48"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="51"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="38"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" s="26"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="38"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="38"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="38"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="38"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="27" t="s">
+      <c r="E58" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="41"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="38"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="43"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="38"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="45"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="38"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="45"/>
+      <c r="F58" s="75"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="38"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="45"/>
-    </row>
-    <row r="60" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="55"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="77"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="48"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="66"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="48"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="66"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="48"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="66"/>
+    </row>
+    <row r="63" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="51"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B16:F16"/>
+  <mergeCells count="50">
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A21:A41"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F33"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B28:F29"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B20:F20"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A18:A38"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F30"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B25:F26"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1898,13 +2025,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
+      <c r="A1" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
